--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA78CEEA-3629-4E53-871A-A2423F3850B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085CDA04-D25A-4174-99EC-BAE9DA5F0C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,6 +823,38 @@
   </si>
   <si>
     <t>400갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1213,11 +1245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4526,6 +4558,142 @@
         <v>30</v>
       </c>
     </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" s="3">
+        <v>6.9999999999999997E+90</v>
+      </c>
+      <c r="C195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195" s="1">
+        <v>73</v>
+      </c>
+      <c r="E195" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1.0000000000000001E+91</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196" s="1">
+        <v>73</v>
+      </c>
+      <c r="E196" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2.0000000000000002E+91</v>
+      </c>
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197" s="1">
+        <v>73</v>
+      </c>
+      <c r="E197" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" s="3">
+        <v>5.0000000000000002E+91</v>
+      </c>
+      <c r="C198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198" s="1">
+        <v>73</v>
+      </c>
+      <c r="E198" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" s="3">
+        <v>1E+92</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199" s="1">
+        <v>73</v>
+      </c>
+      <c r="E199" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" s="3">
+        <v>2.0000000000000001E+92</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200" s="1">
+        <v>73</v>
+      </c>
+      <c r="E200" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" s="3">
+        <v>5.0000000000000002E+92</v>
+      </c>
+      <c r="C201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201" s="1">
+        <v>73</v>
+      </c>
+      <c r="E201" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" s="3">
+        <v>1E+93</v>
+      </c>
+      <c r="C202" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202" s="1">
+        <v>73</v>
+      </c>
+      <c r="E202" s="1">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/HellReward.xlsx
+++ b/Assets/06.Table/HellReward.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085CDA04-D25A-4174-99EC-BAE9DA5F0C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA76670-3976-45C3-B348-2ED11ED054F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="HellReward" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>rewardType</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,30 +831,6 @@
   </si>
   <si>
     <t>1000갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B203" sqref="B203"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E196" sqref="E2:E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4592,108 +4568,6 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197" s="3">
-        <v>2.0000000000000002E+91</v>
-      </c>
-      <c r="C197" t="s">
-        <v>200</v>
-      </c>
-      <c r="D197" s="1">
-        <v>73</v>
-      </c>
-      <c r="E197" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <v>196</v>
-      </c>
-      <c r="B198" s="3">
-        <v>5.0000000000000002E+91</v>
-      </c>
-      <c r="C198" t="s">
-        <v>201</v>
-      </c>
-      <c r="D198" s="1">
-        <v>73</v>
-      </c>
-      <c r="E198" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <v>197</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1E+92</v>
-      </c>
-      <c r="C199" t="s">
-        <v>202</v>
-      </c>
-      <c r="D199" s="1">
-        <v>73</v>
-      </c>
-      <c r="E199" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200" s="3">
-        <v>2.0000000000000001E+92</v>
-      </c>
-      <c r="C200" t="s">
-        <v>203</v>
-      </c>
-      <c r="D200" s="1">
-        <v>73</v>
-      </c>
-      <c r="E200" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201" s="3">
-        <v>5.0000000000000002E+92</v>
-      </c>
-      <c r="C201" t="s">
-        <v>204</v>
-      </c>
-      <c r="D201" s="1">
-        <v>73</v>
-      </c>
-      <c r="E201" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <v>200</v>
-      </c>
-      <c r="B202" s="3">
-        <v>1E+93</v>
-      </c>
-      <c r="C202" t="s">
-        <v>205</v>
-      </c>
-      <c r="D202" s="1">
-        <v>73</v>
-      </c>
-      <c r="E202" s="1">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
